--- a/Hardware/Cobot/Cobot/BOM.xlsx
+++ b/Hardware/Cobot/Cobot/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\Repos\ViseClampingDevice\Hardware\Spanner\Spanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\Repos\ViseClampingDevice\Hardware\Cobot\Cobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811B6C14-FD8D-4936-8805-0006011907BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C4982F-3F8C-44C8-BC1A-2FBA9BFD4D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E1F9CD80-954B-4011-AF5A-708EEB863285}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E1F9CD80-954B-4011-AF5A-708EEB863285}"/>
   </bookViews>
   <sheets>
     <sheet name="Cobot" sheetId="2" r:id="rId1"/>
@@ -923,8 +923,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1350,1220 +1352,1220 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>227</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>229</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>205</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>106</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>233</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>234</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>235</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>119</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>237</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>238</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>239</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>135</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>242</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>243</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>245</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>246</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>218</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>247</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" t="s">
         <v>146</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>249</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>205</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>129</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>154</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>155</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>251</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>252</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>158</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
         <v>159</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>254</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
         <v>163</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>255</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>256</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>165</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>129</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" t="s">
         <v>166</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>257</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>129</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" t="s">
         <v>169</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>259</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>173</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>174</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>260</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>176</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>177</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>178</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" t="s">
         <v>180</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>261</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>182</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>183</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>122</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>185</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" t="s">
         <v>183</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>262</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>188</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>191</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" t="s">
         <v>188</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>263</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>195</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>196</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" t="s">
         <v>197</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>264</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>265</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>202</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" t="s">
         <v>203</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2577,17 +2579,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCE28E7-0BF5-4B6B-B5FF-18566D7AEEFE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
@@ -2595,764 +2600,762 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>275</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>277</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>20</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>23</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>24</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>25</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>26</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>43</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>27</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>28</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>29</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>30</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>31</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>32</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>33</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>163</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>34</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>6</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>35</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>16</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>37</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>180</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>38</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>183</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>39</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>191</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>40</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>196</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>197</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>41</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>203</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{2BCE28E7-0BF5-4B6B-B5FF-18566D7AEEFE}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
